--- a/Numerical Experiments/Vikor/ALL/Entropy/mcdm.xlsx
+++ b/Numerical Experiments/Vikor/ALL/Entropy/mcdm.xlsx
@@ -1,16 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C763CF08-036D-4A62-A5D7-853BC35FF0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEE3425-2226-4BAF-98F0-47444F35EFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -19,9 +17,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>وزن</t>
-  </si>
-  <si>
     <t>c3</t>
   </si>
   <si>
@@ -53,6 +48,9 @@
   </si>
   <si>
     <t>Hybrid</t>
+  </si>
+  <si>
+    <t>weight</t>
   </si>
 </sst>
 </file>
@@ -120,7 +118,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -134,7 +132,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -158,9 +155,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -198,9 +195,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,26 +230,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,26 +265,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -481,7 +444,7 @@
   <dimension ref="D5:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:J5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,50 +454,50 @@
   <sheetData>
     <row r="5" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5">
         <v>0.19491600000000001</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>-5.5310000000000003E-3</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>6.2082999999999999E-2</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>2.9694999999999999E-2</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>-1.9269999999999999E-3</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>0.70584800000000003</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="G6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="4">
         <v>3.375</v>
@@ -557,7 +520,7 @@
     </row>
     <row r="8" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="4">
         <v>14.208333333333334</v>
@@ -580,7 +543,7 @@
     </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="4">
         <v>18</v>
@@ -603,7 +566,7 @@
     </row>
     <row r="10" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="4">
         <v>22.583333333333332</v>
@@ -626,7 +589,7 @@
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4">
         <v>21.416666666666668</v>
@@ -651,46 +614,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="F7:G7"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>